--- a/TDD/Bilder/mappersreducers.xlsx
+++ b/TDD/Bilder/mappersreducers.xlsx
@@ -11,11 +11,28 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>mapping</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
+    <t>meducers</t>
+  </si>
+  <si>
+    <t>mappers</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,7 +80,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:style val="27"/>
+  <c:style val="3"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -76,12 +93,24 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>number of mappers &amp; number of reducers / runtime</a:t>
+              <a:t>number of mappers &amp; number</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> of reducers / runtime</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1897631830112145"/>
+          <c:y val="1.6129028844079917E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -89,21 +118,20 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10704237919627139"/>
-          <c:y val="0.20480421961643291"/>
-          <c:w val="0.74320589673126303"/>
-          <c:h val="0.60347161640766156"/>
+          <c:x val="8.3855732522071152E-2"/>
+          <c:y val="0.11311169394807938"/>
+          <c:w val="0.7598089656406587"/>
+          <c:h val="0.72570088779508779"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]mapper_reducer!$C$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -114,79 +142,39 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>[1]mapper_reducer!$A$2:$B$11</c:f>
+              <c:f>Sheet1!$A$2:$B$11</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>10</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>18</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>9</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>16</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>14</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>7</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>6</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>4</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -194,7 +182,31 @@
                     <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1</c:v>
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>20</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -202,7 +214,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]mapper_reducer!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -245,90 +257,50 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]mapper_reducer!$D$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>map</c:v>
+                  <c:v>mapping</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>[1]mapper_reducer!$A$2:$B$11</c:f>
+              <c:f>Sheet1!$A$2:$B$11</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>10</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>18</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>9</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>16</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>14</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>7</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>6</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>4</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -336,7 +308,31 @@
                     <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1</c:v>
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>20</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -344,7 +340,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]mapper_reducer!$D$2:$D$11</c:f>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -387,7 +383,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]mapper_reducer!$E$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -398,79 +394,39 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>[1]mapper_reducer!$A$2:$B$11</c:f>
+              <c:f>Sheet1!$A$2:$B$11</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>10</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>18</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>9</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>16</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>14</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>7</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>6</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>4</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -478,7 +434,31 @@
                     <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1</c:v>
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>20</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -486,7 +466,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]mapper_reducer!$E$2:$E$11</c:f>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -524,25 +504,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:overlap val="100"/>
-        <c:axId val="121473280"/>
-        <c:axId val="121495552"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:axId val="164081024"/>
+        <c:axId val="164574336"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="121473280"/>
+        <c:axId val="164081024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121495552"/>
+        <c:crossAx val="164574336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121495552"/>
+        <c:axId val="164574336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,11 +536,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>runtime in ms</a:t>
+                  <a:rPr lang="de-DE" sz="1200"/>
+                  <a:t>runtime in s</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -568,14 +549,15 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0"/>
-              <c:y val="0.12092046048200809"/>
+              <c:x val="7.5757575757575777E-3"/>
+              <c:y val="4.1546854299624431E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121473280"/>
+        <c:crossAx val="164081024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -588,7 +570,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -599,20 +581,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -634,12 +616,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.85172</cdr:x>
-      <cdr:y>0.82974</cdr:y>
+      <cdr:x>0.85511</cdr:x>
+      <cdr:y>0.9254</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.98734</cdr:x>
-      <cdr:y>0.90168</cdr:y>
+      <cdr:x>0.95881</cdr:x>
+      <cdr:y>0.97581</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -648,8 +630,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4486276" y="3295651"/>
-          <a:ext cx="714375" cy="285750"/>
+          <a:off x="5734050" y="4371976"/>
+          <a:ext cx="695325" cy="238125"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -669,12 +651,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.85353</cdr:x>
-      <cdr:y>0.91607</cdr:y>
+      <cdr:x>0.85653</cdr:x>
+      <cdr:y>0.85081</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99458</cdr:x>
-      <cdr:y>0.99281</cdr:y>
+      <cdr:x>0.97159</cdr:x>
+      <cdr:y>0.89516</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -683,8 +665,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4495800" y="3638551"/>
-          <a:ext cx="742950" cy="304800"/>
+          <a:off x="5743574" y="4019551"/>
+          <a:ext cx="771525" cy="209550"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -703,201 +685,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="mapper_reducer"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>upload</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>map</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>job</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2</v>
-          </cell>
-          <cell r="B2">
-            <v>1</v>
-          </cell>
-          <cell r="C2">
-            <v>248.892</v>
-          </cell>
-          <cell r="D2">
-            <v>1960.489</v>
-          </cell>
-          <cell r="E2">
-            <v>2243.0650000000001</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>4</v>
-          </cell>
-          <cell r="B3">
-            <v>2</v>
-          </cell>
-          <cell r="C3">
-            <v>246.27500000000001</v>
-          </cell>
-          <cell r="D3">
-            <v>1066.72</v>
-          </cell>
-          <cell r="E3">
-            <v>1140.8879999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>6</v>
-          </cell>
-          <cell r="B4">
-            <v>3</v>
-          </cell>
-          <cell r="C4">
-            <v>244.15700000000001</v>
-          </cell>
-          <cell r="D4">
-            <v>790.19299999999998</v>
-          </cell>
-          <cell r="E4">
-            <v>823.57899999999995</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>8</v>
-          </cell>
-          <cell r="B5">
-            <v>4</v>
-          </cell>
-          <cell r="C5">
-            <v>243.65299999999999</v>
-          </cell>
-          <cell r="D5">
-            <v>660.77599999999995</v>
-          </cell>
-          <cell r="E5">
-            <v>674.94</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>10</v>
-          </cell>
-          <cell r="B6">
-            <v>5</v>
-          </cell>
-          <cell r="C6">
-            <v>244.142</v>
-          </cell>
-          <cell r="D6">
-            <v>608.60799999999995</v>
-          </cell>
-          <cell r="E6">
-            <v>635.875</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>12</v>
-          </cell>
-          <cell r="B7">
-            <v>6</v>
-          </cell>
-          <cell r="C7">
-            <v>244.124</v>
-          </cell>
-          <cell r="D7">
-            <v>572.15700000000004</v>
-          </cell>
-          <cell r="E7">
-            <v>642.62900000000002</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>14</v>
-          </cell>
-          <cell r="B8">
-            <v>7</v>
-          </cell>
-          <cell r="C8">
-            <v>244.035</v>
-          </cell>
-          <cell r="D8">
-            <v>529.86099999999999</v>
-          </cell>
-          <cell r="E8">
-            <v>611.20600000000002</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>16</v>
-          </cell>
-          <cell r="B9">
-            <v>8</v>
-          </cell>
-          <cell r="C9">
-            <v>243.96</v>
-          </cell>
-          <cell r="D9">
-            <v>514.10400000000004</v>
-          </cell>
-          <cell r="E9">
-            <v>601.053</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>18</v>
-          </cell>
-          <cell r="B10">
-            <v>9</v>
-          </cell>
-          <cell r="C10">
-            <v>243.90700000000001</v>
-          </cell>
-          <cell r="D10">
-            <v>497.65899999999999</v>
-          </cell>
-          <cell r="E10">
-            <v>589.80499999999995</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>20</v>
-          </cell>
-          <cell r="B11">
-            <v>10</v>
-          </cell>
-          <cell r="C11">
-            <v>243.375</v>
-          </cell>
-          <cell r="D11">
-            <v>492.92899999999997</v>
-          </cell>
-          <cell r="E11">
-            <v>585.46199999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1185,14 +972,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Y42" sqref="Y42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>248.892</v>
+      </c>
+      <c r="D2">
+        <v>1960.489</v>
+      </c>
+      <c r="E2">
+        <v>2243.0650000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>246.27500000000001</v>
+      </c>
+      <c r="D3">
+        <v>1066.72</v>
+      </c>
+      <c r="E3">
+        <v>1140.8879999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>244.15700000000001</v>
+      </c>
+      <c r="D4">
+        <v>790.19299999999998</v>
+      </c>
+      <c r="E4">
+        <v>823.57899999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>243.65299999999999</v>
+      </c>
+      <c r="D5">
+        <v>660.77599999999995</v>
+      </c>
+      <c r="E5">
+        <v>674.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>244.142</v>
+      </c>
+      <c r="D6">
+        <v>608.60799999999995</v>
+      </c>
+      <c r="E6">
+        <v>635.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>244.124</v>
+      </c>
+      <c r="D7">
+        <v>572.15700000000004</v>
+      </c>
+      <c r="E7">
+        <v>642.62900000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>244.035</v>
+      </c>
+      <c r="D8">
+        <v>529.86099999999999</v>
+      </c>
+      <c r="E8">
+        <v>611.20600000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>243.96</v>
+      </c>
+      <c r="D9">
+        <v>514.10400000000004</v>
+      </c>
+      <c r="E9">
+        <v>601.053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>243.90700000000001</v>
+      </c>
+      <c r="D10">
+        <v>497.65899999999999</v>
+      </c>
+      <c r="E10">
+        <v>589.80499999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>243.375</v>
+      </c>
+      <c r="D11">
+        <v>492.92899999999997</v>
+      </c>
+      <c r="E11">
+        <v>585.46199999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
